--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="126">
   <si>
     <t>WorflowName</t>
   </si>
@@ -395,12 +395,19 @@
   </si>
   <si>
     <t>19-03-2024  16:07:25 PM</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -767,54 +774,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="2"/>
-    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" style="2"/>
-    <col min="15" max="16" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="2"/>
-    <col min="22" max="22" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.453125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.36328125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="24.08984375"/>
+    <col min="9" max="9" style="2" width="8.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="13" max="14" style="2" width="8.7265625"/>
+    <col min="15" max="16" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="21.54296875"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="21" max="21" style="2" width="8.7265625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.36328125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
+    <col min="55" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1090,8 +1097,8 @@
       <c r="AJ2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>120</v>
+      <c r="AK2" t="s" s="2">
+        <v>125</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>87</v>
@@ -1149,55 +1156,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.6328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.90625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1532,52 +1539,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1910,53 +1917,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">

--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="124">
   <si>
     <t>WorflowName</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Steven</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Add New Text</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
   </si>
   <si>
     <t>CurrentTime</t>
-  </si>
-  <si>
-    <t>2024-03-06 01:44:34 PM</t>
   </si>
   <si>
     <t>CT. Wed, Mar 06, 2024 at 1:49 PM</t>
@@ -334,73 +328,73 @@
     <t>EditSales@gmail.com</t>
   </si>
   <si>
-    <t>02:35:55 PM</t>
+    <t>0231907562</t>
+  </si>
+  <si>
+    <t>9596754413</t>
+  </si>
+  <si>
+    <t>9501926441</t>
+  </si>
+  <si>
+    <t>0472103025</t>
+  </si>
+  <si>
+    <t>Default Text</t>
+  </si>
+  <si>
+    <t>wfCreateEntity_DefaultValues</t>
+  </si>
+  <si>
+    <t>GeneralDefault@gmail.com</t>
+  </si>
+  <si>
+    <t>Chengalpattu</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>DefaultEnquiry@gmail.com</t>
+  </si>
+  <si>
+    <t>India's First Lead Management System</t>
+  </si>
+  <si>
+    <t>tskOOFS_DefaultValues</t>
+  </si>
+  <si>
+    <t>DefaultLead@gmail.com</t>
+  </si>
+  <si>
+    <t>DefaultSales@gmail.com</t>
+  </si>
+  <si>
+    <t>Create Entity - CreateEntityTarget</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>04:05:40 PM</t>
   </si>
   <si>
     <t>2024-03-19</t>
   </si>
   <si>
-    <t>2024-03-19 02:58:10 PM</t>
-  </si>
-  <si>
-    <t>0231907562</t>
-  </si>
-  <si>
-    <t>9596754413</t>
-  </si>
-  <si>
-    <t>9501926441</t>
-  </si>
-  <si>
-    <t>0472103025</t>
-  </si>
-  <si>
-    <t>Default Text</t>
-  </si>
-  <si>
-    <t>wfCreateEntity_DefaultValues</t>
-  </si>
-  <si>
-    <t>GeneralDefault@gmail.com</t>
-  </si>
-  <si>
-    <t>Chengalpattu</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>DefaultEnquiry@gmail.com</t>
-  </si>
-  <si>
-    <t>India's First Lead Management System</t>
-  </si>
-  <si>
-    <t>tskOOFS_DefaultValues</t>
-  </si>
-  <si>
-    <t>DefaultLead@gmail.com</t>
-  </si>
-  <si>
-    <t>DefaultSales@gmail.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Create Entity - CreateEntityTarget</t>
-  </si>
-  <si>
-    <t>CT: Tue, Mar 19, 2024 at 6:42 PM</t>
-  </si>
-  <si>
-    <t>19-03-2024  16:07:25 PM</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>2024-03-19 04:07:25 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 11:28 AM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 11:55 AM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 11:59 AM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 03, 2024 at 12:01 PM</t>
   </si>
 </sst>
 </file>
@@ -453,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -474,15 +468,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -768,68 +753,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="24.08984375"/>
-    <col min="9" max="9" style="2" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="13" max="14" style="2" width="8.7265625"/>
-    <col min="15" max="16" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="21.54296875"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="21" max="21" style="2" width="8.7265625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="24.140625"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="11.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="21.5703125"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
     <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
-    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.36328125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
     <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
     <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
-    <col min="55" max="16384" style="2" width="8.7265625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -955,10 +941,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -984,25 +970,25 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>77</v>
+      <c r="BB1" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>58</v>
@@ -1011,7 +997,7 @@
         <v>1234567890</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1020,7 +1006,7 @@
         <v>64</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>23</v>
@@ -1031,23 +1017,23 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="8">
-        <v>45370</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0.67060185185185184</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>123</v>
+      <c r="O2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>65</v>
@@ -1065,19 +1051,19 @@
         <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>45370</v>
+        <v>111</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1092,19 +1078,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1116,10 +1102,10 @@
         <v>1234567890</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -1128,10 +1114,10 @@
         <v>1234567890</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="BB2" t="s" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1150,69 +1136,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.90625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1338,10 +1324,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1368,33 +1354,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1414,17 +1400,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>105</v>
+      <c r="O2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1436,7 +1422,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1448,25 +1434,25 @@
         <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1475,19 +1461,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AS2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1496,25 +1482,25 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1526,6 +1512,7 @@
     <hyperlink ref="BA2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1533,66 +1520,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1718,10 +1705,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1748,33 +1735,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1794,17 +1781,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1816,7 +1803,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1828,25 +1815,25 @@
         <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1855,19 +1842,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AS2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1876,22 +1863,22 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1911,67 +1898,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="21.7109375"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2097,10 +2084,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2127,33 +2114,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2173,17 +2160,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -2195,7 +2182,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -2207,25 +2194,25 @@
         <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2234,19 +2221,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AS2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2255,22 +2242,22 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2282,5 +2269,6 @@
     <hyperlink ref="BA2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="133">
   <si>
     <t>WorflowName</t>
   </si>
@@ -395,6 +395,33 @@
   </si>
   <si>
     <t>CT: Wed, Apr 03, 2024 at 12:01 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 6:46 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 6:49 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 6:52 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 11:13 AM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 11:17 AM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 11:20 AM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 11:32 AM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 11:35 AM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 11:38 AM</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1144,7 @@
         <v>114</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="136">
   <si>
     <t>WorflowName</t>
   </si>
@@ -422,6 +422,15 @@
   </si>
   <si>
     <t>CT: Sat, Apr 06, 2024 at 11:38 AM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 5:30 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 5:34 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 5:37 PM</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1153,7 @@
         <v>114</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="139">
   <si>
     <t>WorflowName</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t>CT: Tue, Apr 09, 2024 at 5:37 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 12:37 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 12:40 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 12:43 PM</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1162,7 @@
         <v>114</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="143">
   <si>
     <t>WorflowName</t>
   </si>
@@ -440,6 +440,18 @@
   </si>
   <si>
     <t>CT: Wed, Apr 10, 2024 at 12:43 PM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 2:51 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 2:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 2:59 PM</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1141,7 @@
         <v>112</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>85</v>
@@ -1162,7 +1174,7 @@
         <v>114</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="146">
   <si>
     <t>WorflowName</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>CT: Mon, Jun 03, 2024 at 2:59 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 3:08 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 3:12 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 3:16 PM</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1150,7 @@
         <v>112</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>85</v>
@@ -1174,7 +1183,7 @@
         <v>114</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="149">
   <si>
     <t>WorflowName</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>CT: Fri, Jul 12, 2024 at 3:16 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 2:22 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 2:27 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 2:31 PM</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1192,7 @@
         <v>114</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_DefaultValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="152">
   <si>
     <t>WorflowName</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>CT: Mon, Jan 06, 2025 at 2:31 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 6:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 7:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 7:04 PM</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1201,7 @@
         <v>114</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
